--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2238046.345818905</v>
+        <v>2350726.08722952</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004884</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>612367.9462114751</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5811571.284293513</v>
+        <v>6214272.123761133</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>30.49859044677629</v>
       </c>
       <c r="G2" t="n">
-        <v>22.81545381537659</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -725,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -823,16 +825,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>30.32744450190143</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>103.8171286208075</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>170.2553066834602</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>36.66438868520863</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.6590810733388</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>106.4996628416748</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1120,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>181.1434624630639</v>
       </c>
       <c r="Y8" t="n">
-        <v>104.4370611925397</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1296,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>127.800783542038</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1306,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>143.2339338136094</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>114.0304427539116</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1430,13 +1432,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>97.60112162899995</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>115.1055716303386</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1607,10 +1609,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1619,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1658,22 +1660,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>398.2354427357446</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1770,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1813,13 +1815,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>115.1055716303386</v>
+        <v>165.7104322459758</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2005,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>75.30362264056697</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2059,13 +2061,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>25.21957993288133</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886501</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>75.25534642053162</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,10 +2295,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180486</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>84.52075209270183</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>18.79193550549772</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2539,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.4755279372322</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2722,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>135.7468035496482</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2956,16 +2958,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3010,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>148.1612423902099</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.3509450707813</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>161.6737988100367</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3433,10 +3435,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>66.82300722904168</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>154.8833258811974</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3556,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>71.04375511693431</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>44.41388702247895</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3724,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3755,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>98.34861935031655</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3791,19 +3793,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3901,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>19.64740624208219</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -3955,7 +3957,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>131.0848403072455</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>228.9130160223867</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4186,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>223.2003349611176</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>170.5586896897042</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1399.695077674639</v>
+        <v>168.7534004685691</v>
       </c>
       <c r="C2" t="n">
-        <v>972.7943476879391</v>
+        <v>145.8930745222733</v>
       </c>
       <c r="D2" t="n">
-        <v>953.5421309133434</v>
+        <v>126.6408577476777</v>
       </c>
       <c r="E2" t="n">
-        <v>527.5651910612009</v>
+        <v>104.7043219359393</v>
       </c>
       <c r="F2" t="n">
-        <v>102.4410092506012</v>
+        <v>73.89766491899353</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>517.6410595347455</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505812</v>
+        <v>517.6410595347455</v>
       </c>
       <c r="M2" t="n">
-        <v>1508.432753835019</v>
+        <v>977.228916131015</v>
       </c>
       <c r="N2" t="n">
-        <v>2059.098288819458</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="O2" t="n">
-        <v>2059.098288819458</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="P2" t="n">
-        <v>2059.098288819458</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>993.9695752563066</v>
       </c>
       <c r="W2" t="n">
-        <v>1828.519902762723</v>
+        <v>597.5782255566535</v>
       </c>
       <c r="X2" t="n">
-        <v>1820.840307970875</v>
+        <v>589.8986307648048</v>
       </c>
       <c r="Y2" t="n">
-        <v>1819.543441966169</v>
+        <v>184.5613607196951</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>46.14877825422927</v>
       </c>
       <c r="J3" t="n">
-        <v>416.2236218818665</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>966.8891568663047</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>966.8891568663047</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="M3" t="n">
-        <v>966.8891568663047</v>
+        <v>796.7851917762484</v>
       </c>
       <c r="N3" t="n">
-        <v>1517.554691850743</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="O3" t="n">
-        <v>2068.220226835181</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="P3" t="n">
-        <v>2068.220226835181</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377673</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>682.0516858538774</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>510.0791227327934</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>346.7623498595641</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>346.7623498595641</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9005756341245</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>174.9005756341245</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734062</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792433</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736641</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.87263914955</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>2177.87263914955</v>
+        <v>1691.767416841771</v>
       </c>
       <c r="U4" t="n">
-        <v>1897.688190649854</v>
+        <v>1586.901630356107</v>
       </c>
       <c r="V4" t="n">
-        <v>1615.976723257883</v>
+        <v>1586.901630356107</v>
       </c>
       <c r="W4" t="n">
-        <v>1341.124319430396</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="X4" t="n">
-        <v>1098.560422876201</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="Y4" t="n">
-        <v>872.2176545659431</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>988.0056192934842</v>
+        <v>2043.959734409802</v>
       </c>
       <c r="C5" t="n">
-        <v>561.1048893067843</v>
+        <v>2021.099408463506</v>
       </c>
       <c r="D5" t="n">
-        <v>137.8122684917846</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4568,25 +4570,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4607,10 +4609,10 @@
         <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.191253630124</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>1407.853983585014</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>669.8354755761777</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>669.8354755761777</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>541.958672221996</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="C7" t="n">
-        <v>541.958672221996</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="D7" t="n">
-        <v>378.6418993487667</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E7" t="n">
-        <v>378.6418993487667</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F7" t="n">
-        <v>206.7801251233272</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4726,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
         <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1811.43685720741</v>
+        <v>1947.200787969719</v>
       </c>
       <c r="U7" t="n">
-        <v>1531.252408707715</v>
+        <v>1667.016339470023</v>
       </c>
       <c r="V7" t="n">
-        <v>1249.540941315744</v>
+        <v>1385.304872078052</v>
       </c>
       <c r="W7" t="n">
-        <v>974.6885374882565</v>
+        <v>1110.452468250565</v>
       </c>
       <c r="X7" t="n">
-        <v>732.1246409340616</v>
+        <v>867.88857169637</v>
       </c>
       <c r="Y7" t="n">
-        <v>732.1246409340616</v>
+        <v>641.5458033861121</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>938.0105478030287</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C8" t="n">
         <v>511.1098178163287</v>
@@ -4805,19 +4807,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>455.3583126271592</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1006.023847611597</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.023847611597</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
         <v>2107.354917580474</v>
@@ -4829,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1867.421837588626</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>1471.030487888973</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.350893097124</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094559</v>
+        <v>953.8185080541546</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>119.1699405917395</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>669.8354755761777</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>1220.501010560616</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>1771.166545545054</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>864.5940064405311</v>
+        <v>946.7665737820055</v>
       </c>
       <c r="C10" t="n">
-        <v>692.6214433194471</v>
+        <v>774.7940106609215</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6214433194471</v>
+        <v>611.4772377876922</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2080.230511236507</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2080.230511236507</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>2080.230511236507</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1798.519043844537</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="W10" t="n">
-        <v>1523.66664001705</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="X10" t="n">
-        <v>1281.102743462855</v>
+        <v>1136.932542494071</v>
       </c>
       <c r="Y10" t="n">
-        <v>1054.759975152597</v>
+        <v>1136.932542494071</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2503.080935154279</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2076.18020516758</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.88758435258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1226.910644500437</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>801.7864626898375</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792862</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332097</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679218</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679218</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>780.1904584722912</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1580.632070870094</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1580.632070870094</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>2381.073683267898</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O11" t="n">
-        <v>2381.073683267898</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P11" t="n">
-        <v>3089.352962425825</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957706</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839609</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839609</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3234.107524839609</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>2975.752615436021</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2618.263200562271</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2618.263200562271</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2618.263200562271</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2618.263200562271</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679218</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.12879345870401</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>72.12879345870401</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>72.12879345870401</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>872.5704058565071</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>872.5704058565071</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N12" t="n">
-        <v>1673.01201825431</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.863273021029</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C13" t="n">
-        <v>975.890709899945</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D13" t="n">
-        <v>812.5739370267157</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E13" t="n">
-        <v>646.3657311795693</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541297</v>
+        <v>344.6859734421186</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>344.6859734421186</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>200.8897049502729</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679218</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2198.056564597094</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2198.056564597094</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>2081.788310425035</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>2081.788310425035</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1806.935906597548</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>1564.372010043353</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y13" t="n">
-        <v>1338.029241733095</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1652.88758435258</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>1652.88758435258</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.88758435258</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1226.910644500437</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>801.7864626898375</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>397.4474002792862</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332097</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679218</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136877</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1142.793917289187</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="L14" t="n">
-        <v>1515.6679651621</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M14" t="n">
-        <v>1515.6679651621</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N14" t="n">
-        <v>2316.109577559903</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957706</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957706</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957706</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839609</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712749</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3129.740230712749</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>2871.385321309162</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2871.385321309162</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2474.993971609509</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2474.993971609509</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2072.73594864411</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679218</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679218</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679218</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679218</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>64.68215049679218</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M15" t="n">
-        <v>64.68215049679218</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N15" t="n">
-        <v>274.7111415562975</v>
+        <v>1782.102586447038</v>
       </c>
       <c r="O15" t="n">
-        <v>1075.152753954101</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.863273021029</v>
+        <v>684.0483191256287</v>
       </c>
       <c r="C16" t="n">
-        <v>975.890709899945</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="D16" t="n">
-        <v>812.5739370267157</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="E16" t="n">
-        <v>646.3657311795693</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541297</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679218</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2198.056564597094</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2081.788310425035</v>
+        <v>1898.15780502933</v>
       </c>
       <c r="U16" t="n">
-        <v>2081.788310425035</v>
+        <v>1617.973356529634</v>
       </c>
       <c r="V16" t="n">
-        <v>2081.788310425035</v>
+        <v>1617.973356529634</v>
       </c>
       <c r="W16" t="n">
-        <v>1806.935906597548</v>
+        <v>1343.120952702147</v>
       </c>
       <c r="X16" t="n">
-        <v>1564.372010043353</v>
+        <v>1100.557056147952</v>
       </c>
       <c r="Y16" t="n">
-        <v>1338.029241733095</v>
+        <v>874.2142878376944</v>
       </c>
     </row>
     <row r="17">
@@ -5522,16 +5524,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5595,19 +5597,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>516.547747667561</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>344.575184546477</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>344.575184546477</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>178.3669786993305</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5686,37 +5688,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.677127506133</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.677127506133</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.337779732033</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1712.153331232337</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1686.67900806781</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1411.826604240323</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1411.826604240323</v>
+        <v>742.8905159778189</v>
       </c>
       <c r="Y19" t="n">
-        <v>1185.483835930065</v>
+        <v>516.547747667561</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5828,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N21" t="n">
-        <v>1112.773316863137</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="O21" t="n">
-        <v>1112.773316863137</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
         <v>1828.971033901635</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3579.954428174581</v>
+        <v>440.5322462326804</v>
       </c>
       <c r="C22" t="n">
-        <v>3579.954428174581</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D22" t="n">
-        <v>3416.637655301352</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E22" t="n">
-        <v>3416.637655301352</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F22" t="n">
-        <v>3244.775881075912</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>4654.622661723635</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>4372.911194331664</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="W22" t="n">
-        <v>4098.058790504177</v>
+        <v>985.4544125320137</v>
       </c>
       <c r="X22" t="n">
-        <v>3855.494893949982</v>
+        <v>742.8905159778188</v>
       </c>
       <c r="Y22" t="n">
-        <v>3770.120396886647</v>
+        <v>516.5477476675609</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6063,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L24" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1032.493025844838</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1032.493025844838</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>1032.493025844838</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6226,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>207.5440612468791</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>923.0523692223782</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1852.677416841655</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M26" t="n">
-        <v>2856.963518260713</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3833.214576747414</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
         <v>3833.214576747414</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6409,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>2235.67712750613</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1953.965660114159</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1679.113256286672</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1436.549359732477</v>
+        <v>848.3364291485279</v>
       </c>
       <c r="Y28" t="n">
-        <v>1210.206591422219</v>
+        <v>621.99366083827</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6463,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
         <v>3833.214576747414</v>
@@ -6549,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>2002.531292319261</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.81982492729</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1720.81982492729</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1478.255928373095</v>
+        <v>835.7965919358394</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.881236382407</v>
+        <v>609.4538236255814</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6783,7 +6785,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M33" t="n">
         <v>821.6753975134684</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4017.903765402536</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>3845.931202281452</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D34" t="n">
-        <v>3682.614429408222</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>3516.406223561076</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>4951.828802806542</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>4951.828802806542</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>4676.976398979054</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>4434.41250242486</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>4208.069734114601</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1180.414480198223</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M35" t="n">
-        <v>2184.700581617281</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4006.096290254794</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4714.375569412722</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7005,34 +7007,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1165.735894343786</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4017.903765402534</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.93120228145</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408221</v>
+        <v>579.5737431045868</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561074</v>
+        <v>413.3655372574403</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335634</v>
+        <v>413.3655372574403</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629867</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138021</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878297</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102455</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308292</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602713</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572964</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128763</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050664</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291425</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291425</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>5115.135670291425</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>5115.135670291425</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>5115.135670291425</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>4833.424202899454</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>4676.976398979053</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>4434.412502424858</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>4208.0697341146</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,34 +7174,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.8188681099</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
         <v>4789.842805209199</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L39" t="n">
-        <v>730.647150085061</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="M39" t="n">
-        <v>730.647150085061</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="N39" t="n">
-        <v>730.647150085061</v>
+        <v>4143.635082195253</v>
       </c>
       <c r="O39" t="n">
-        <v>730.647150085061</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S39" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T39" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V39" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3627.708373292416</v>
+        <v>4017.903765402531</v>
       </c>
       <c r="C40" t="n">
-        <v>3627.708373292416</v>
+        <v>3845.931202281447</v>
       </c>
       <c r="D40" t="n">
-        <v>3582.845861148498</v>
+        <v>3682.614429408218</v>
       </c>
       <c r="E40" t="n">
-        <v>3416.637655301351</v>
+        <v>3516.406223561072</v>
       </c>
       <c r="F40" t="n">
-        <v>3244.775881075911</v>
+        <v>3344.544449335632</v>
       </c>
       <c r="G40" t="n">
-        <v>3078.518911370144</v>
+        <v>3178.287479629864</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878298</v>
+        <v>3034.491211138019</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878298</v>
+        <v>2934.722642878295</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102456</v>
+        <v>2992.213971102453</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308293</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602714</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572965</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128764</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P40" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497734</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723634</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.438213223939</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831968</v>
+        <v>4833.424202899456</v>
       </c>
       <c r="W40" t="n">
-        <v>3817.874342004481</v>
+        <v>4558.571799071969</v>
       </c>
       <c r="X40" t="n">
-        <v>3817.874342004481</v>
+        <v>4316.007902517774</v>
       </c>
       <c r="Y40" t="n">
-        <v>3817.874342004481</v>
+        <v>4089.665134207516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2304.554596376109</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>1877.653866389409</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1454.361245574409</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1028.384305722267</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>603.2601239116668</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>198.9210615011154</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679216</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>64.68215049679216</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>64.68215049679216</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>865.1237628945951</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>1151.744818897791</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>1952.186431295594</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P41" t="n">
-        <v>2660.465710453522</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q41" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3129.740230712748</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3129.740230712748</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3129.740230712748</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3129.740230712748</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3129.740230712748</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>3129.740230712748</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2724.402960667639</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679216</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679216</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679216</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L42" t="n">
-        <v>865.1237628945951</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M42" t="n">
-        <v>1327.204994129819</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N42" t="n">
-        <v>1327.204994129819</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O42" t="n">
-        <v>1327.204994129819</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P42" t="n">
-        <v>1327.204994129819</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1791.350470992599</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>712.9161576626361</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="C43" t="n">
-        <v>540.9435945415521</v>
+        <v>429.2616196618956</v>
       </c>
       <c r="D43" t="n">
-        <v>540.9435945415521</v>
+        <v>265.9448467886663</v>
       </c>
       <c r="E43" t="n">
-        <v>374.7353886944056</v>
+        <v>265.9448467886663</v>
       </c>
       <c r="F43" t="n">
-        <v>374.7353886944056</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G43" t="n">
-        <v>208.4784189886378</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1784.582169342129</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1504.397720842433</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1371.988791239155</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1371.988791239155</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X43" t="n">
-        <v>1129.42489468496</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y43" t="n">
-        <v>903.0821263747018</v>
+        <v>791.4001514950452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1765.976622961234</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1339.075892974534</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>915.7832721595344</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>489.8063323073919</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>64.68215049679216</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68215049679216</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679216</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>780.1904584722912</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L44" t="n">
-        <v>780.1904584722912</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M44" t="n">
-        <v>780.1904584722912</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N44" t="n">
-        <v>1580.632070870094</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O44" t="n">
-        <v>1952.186431295594</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>2660.465710453522</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957705</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839608</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3234.107524839608</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3234.107524839608</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3002.882256130126</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2591.162257297874</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2185.824987252764</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679216</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679216</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679216</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="K45" t="n">
-        <v>608.7826918167196</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="L45" t="n">
-        <v>608.7826918167196</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="M45" t="n">
-        <v>608.7826918167196</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="N45" t="n">
-        <v>608.7826918167196</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="O45" t="n">
-        <v>1409.224304214523</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="P45" t="n">
-        <v>1409.224304214523</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2037.107051690993</v>
+        <v>3918.135197142812</v>
       </c>
       <c r="C46" t="n">
-        <v>1865.134488569909</v>
+        <v>3746.162634021728</v>
       </c>
       <c r="D46" t="n">
-        <v>1701.817715696679</v>
+        <v>3582.845861148498</v>
       </c>
       <c r="E46" t="n">
-        <v>1535.609509849533</v>
+        <v>3416.637655301352</v>
       </c>
       <c r="F46" t="n">
-        <v>1363.747735624093</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G46" t="n">
-        <v>1197.490765918325</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H46" t="n">
-        <v>1053.69449742648</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I46" t="n">
-        <v>1053.69449742648</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J46" t="n">
-        <v>1111.185825650638</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>1337.713426856475</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>1692.402748150896</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>2083.588543121146</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>2461.080053997182</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>2816.508182676945</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>3107.107394598846</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S46" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T46" t="n">
-        <v>3234.107524839608</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U46" t="n">
-        <v>2953.923076339912</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="V46" t="n">
-        <v>2728.468192540803</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="W46" t="n">
-        <v>2453.615788713316</v>
+        <v>4316.759470190144</v>
       </c>
       <c r="X46" t="n">
-        <v>2453.615788713316</v>
+        <v>4144.477965453069</v>
       </c>
       <c r="Y46" t="n">
-        <v>2227.273020403058</v>
+        <v>3918.135197142812</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>519.5412919487771</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>501.6614210774818</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>521.0563139884139</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>84.86874406016992</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662958</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>505.1197193675095</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>131.7781250670417</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.17301358442514</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8149,7 +8151,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>94.6403295087156</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8216,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>452.289812307084</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,22 +8291,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>379.7269667620468</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>259.4889279983319</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8313,10 +8315,10 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8453,22 +8455,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>450.7747902674474</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>452.5855512828693</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8529,28 +8531,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>97.8252091287798</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425251</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443482</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.59763170750769</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8772,25 +8774,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>831.0419679241318</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>829.8699094234438</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>225.5534683313047</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>230.3933721714771</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>702.6160445827093</v>
       </c>
       <c r="L14" t="n">
-        <v>414.9524948295048</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443482</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659263</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9015,19 +9017,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>233.493524233244</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>831.6987709321244</v>
+        <v>153.3615438023236</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>100.0581876036193</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9243,22 +9245,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9486,16 +9488,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>693.1063741240905</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>574.2427960500296</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>742.2139937908412</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>135.7243512442234</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
@@ -10109,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>763.5414113871921</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>229.9655591801901</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10209,10 +10211,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10431,10 +10433,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>1121.661155963915</v>
@@ -10589,10 +10591,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10604,7 +10606,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>322.1890847023768</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10674,7 +10676,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>774.1253005797566</v>
+        <v>312.8133471445368</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10683,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10823,16 +10825,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>586.4197136125397</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10905,25 +10907,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>657.2064368952725</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>21.73518417458029</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093337</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>326.7958410194924</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659261</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11142,10 +11144,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>831.0419679241315</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>489.8454989317465</v>
+        <v>445.5991972680949</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.806504044348</v>
+        <v>751.2280472965118</v>
       </c>
       <c r="O44" t="n">
-        <v>412.6983941292563</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11318,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11375,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>571.9957402170985</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11385,19 +11387,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>831.6987709321241</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>392.0964168176092</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.6194378947031</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.169760948126836</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>162.2770323843602</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23546,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.048454608913971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>125.8003826660204</v>
+        <v>75.19552205038323</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>94.83953384261821</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>253.6747727851701</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>113.0089626044134</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>139.5585885344535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>151.4609019843754</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>91.97701519844301</v>
       </c>
       <c r="Y31" t="n">
-        <v>23.72839555637404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>115.7088052046621</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.7713927796685</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>117.2205539080148</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>117.2205539080107</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>117.269718122018</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>196.541075390389</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>150.495750241103</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>147.8095124108059</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>163.5144201802699</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26074,19 +26076,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>55.69401775693373</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>69.57956789894868</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>547382.131147047</v>
+        <v>546639.1192772976</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>396116.0015568272</v>
+        <v>534194.2363001227</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>396116.0015568272</v>
+        <v>534194.2363001227</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>534194.2363001228</v>
+        <v>534194.2363001227</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>534194.2363001227</v>
+        <v>534194.2363001228</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>396116.0015568271</v>
+        <v>534194.2363001227</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>396116.001556827</v>
+        <v>534194.2363001227</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>480515.2011092094</v>
       </c>
       <c r="C2" t="n">
-        <v>480515.2011092096</v>
+        <v>480515.2011092093</v>
       </c>
       <c r="D2" t="n">
-        <v>480515.2011092095</v>
+        <v>480515.2011092094</v>
       </c>
       <c r="E2" t="n">
-        <v>343829.0724022654</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="F2" t="n">
-        <v>343829.0724022653</v>
+        <v>463675.082588394</v>
       </c>
       <c r="G2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="H2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="I2" t="n">
         <v>463675.0825883938</v>
@@ -26338,22 +26340,22 @@
         <v>463675.0825883938</v>
       </c>
       <c r="K2" t="n">
-        <v>463675.0825883937</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="L2" t="n">
         <v>463675.0825883938</v>
       </c>
       <c r="M2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="N2" t="n">
         <v>463675.0825883939</v>
       </c>
       <c r="O2" t="n">
-        <v>343829.0724022654</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="P2" t="n">
-        <v>343829.0724022654</v>
+        <v>463675.0825883938</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346232</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115404</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537383</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148130.4125690141</v>
+        <v>163968.7154446949</v>
       </c>
       <c r="C4" t="n">
         <v>148130.4125690142</v>
@@ -26424,10 +26426,10 @@
         <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>11188.4120876085</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="F4" t="n">
-        <v>11188.4120876085</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="G4" t="n">
         <v>15116.17365792744</v>
@@ -26442,7 +26444,7 @@
         <v>15116.17365792744</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="L4" t="n">
         <v>15116.17365792744</v>
@@ -26451,13 +26453,13 @@
         <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
+        <v>15116.17365792744</v>
+      </c>
+      <c r="O4" t="n">
         <v>15116.17365792743</v>
       </c>
-      <c r="O4" t="n">
-        <v>11188.4120876085</v>
-      </c>
       <c r="P4" t="n">
-        <v>11188.4120876085</v>
+        <v>15116.17365792744</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756205</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756205</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78533.80408802992</v>
+        <v>91380.56677276216</v>
       </c>
       <c r="C6" t="n">
-        <v>264938.5375027673</v>
+        <v>241531.7038291548</v>
       </c>
       <c r="D6" t="n">
-        <v>264938.5375027672</v>
+        <v>264938.5375027671</v>
       </c>
       <c r="E6" t="n">
-        <v>208151.2747836325</v>
+        <v>155069.4901853961</v>
       </c>
       <c r="F6" t="n">
-        <v>283482.2259370948</v>
+        <v>370808.8467420369</v>
       </c>
       <c r="G6" t="n">
-        <v>241918.4469304962</v>
+        <v>370808.8467420368</v>
       </c>
       <c r="H6" t="n">
+        <v>370808.8467420368</v>
+      </c>
+      <c r="I6" t="n">
         <v>370808.8467420366</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>244231.578161748</v>
+      </c>
+      <c r="K6" t="n">
+        <v>352162.2463850168</v>
+      </c>
+      <c r="L6" t="n">
         <v>370808.8467420367</v>
       </c>
-      <c r="J6" t="n">
-        <v>225275.1768072202</v>
-      </c>
-      <c r="K6" t="n">
-        <v>370808.8467420366</v>
-      </c>
-      <c r="L6" t="n">
-        <v>370808.8467420366</v>
-      </c>
       <c r="M6" t="n">
-        <v>307934.909776663</v>
+        <v>190744.975286869</v>
       </c>
       <c r="N6" t="n">
-        <v>370808.8467420369</v>
+        <v>370808.8467420368</v>
       </c>
       <c r="O6" t="n">
-        <v>283482.2259370949</v>
+        <v>370808.8467420368</v>
       </c>
       <c r="P6" t="n">
-        <v>283482.2259370949</v>
+        <v>370808.8467420367</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099022</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099022</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099019</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099019</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629546</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629546</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>390.3743495457175</v>
       </c>
       <c r="G2" t="n">
-        <v>377.4802179710692</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>112.0308613050257</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>173.5654753938913</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>245.3945739651546</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>385.0527817684124</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27785,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>3.935318935371356</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>134.4062914546842</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>226.4593363808663</v>
       </c>
       <c r="Y8" t="n">
-        <v>296.8468361521188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>36.74534024663697</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>25.19976319244705</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -28564,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28758,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>2.827960088325199e-12</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>464.23015817805</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q2" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>108.6062353448195</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.42597529544663</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34869,7 +34871,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>72.14114201029115</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>73.06155854104185</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>415.010189472638</v>
-      </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>357.2118800478173</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>238.1458997847902</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,10 +35035,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>75.42597529544646</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>444.605878150503</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099022</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099022</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>27.47295710290965</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>808.5268812099022</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>808.5268812099022</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>202.3815786090825</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="L14" t="n">
-        <v>376.6404523968819</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099022</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099022</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>212.1504960197024</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>808.5268812099022</v>
+        <v>130.1896540801013</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>62.48282579338804</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36054,7 +36056,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>359.0183117977433</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
         <v>293.5345574968697</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>669.9344844018683</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>719.1172132785132</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>106.3043917586369</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
@@ -36829,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>726.1504520311679</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>1100.318127750374</v>
@@ -37309,10 +37311,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37324,7 +37326,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>286.0644100977787</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>752.782272366215</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,16 +37545,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>548.1076711799168</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>634.6913501810429</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>0.3921559610386215</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937791</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099019</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>289.5162181850464</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099019</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>808.5268812099019</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>466.7487184194185</v>
+        <v>422.5024167557669</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099019</v>
+        <v>713.9484244620658</v>
       </c>
       <c r="O44" t="n">
-        <v>375.3074347732322</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38038,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5965063837651</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>369.3493785286307</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2350726.08722952</v>
+        <v>2350029.426024429</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114751</v>
+        <v>612367.9462114752</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6214272.123761133</v>
+        <v>6214272.123761134</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>30.49859044677629</v>
+        <v>189.1997466593652</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>103.8171286208075</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>152.6093644905705</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.2553066834602</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -907,13 +907,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>58.33552926585337</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>106.4996628416748</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1147,13 +1147,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>245.0041570744209</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>181.1434624630639</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1299,7 +1299,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>127.800783542038</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1308,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.60112162899995</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>73.50111029899487</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1621,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>104.9037564455553</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>165.7104322459758</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1846,13 +1846,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>75.30362264056697</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>30.27717616827099</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,13 +2061,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886501</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.25534642053162</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2298,7 +2298,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180486</v>
+        <v>206.9048608188591</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2715,16 +2715,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7468035496482</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>148.1612423902099</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="G37" t="n">
-        <v>66.82300722904168</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.04375511693431</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3742,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>19.64740624208219</v>
+        <v>4.378995526348206</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3985,7 +3985,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>101.992961581339</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>170.5586896897042</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.7534004685691</v>
+        <v>1506.281939527787</v>
       </c>
       <c r="C2" t="n">
-        <v>145.8930745222733</v>
+        <v>1079.381209541087</v>
       </c>
       <c r="D2" t="n">
-        <v>126.6408577476777</v>
+        <v>656.0885887260872</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7043219359393</v>
+        <v>230.1116488739448</v>
       </c>
       <c r="F2" t="n">
-        <v>73.89766491899353</v>
+        <v>39.00079366246474</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884622</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884622</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
         <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231743</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>517.6410595347455</v>
+        <v>401.305594109213</v>
       </c>
       <c r="L2" t="n">
-        <v>517.6410595347455</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="M2" t="n">
-        <v>977.228916131015</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="N2" t="n">
-        <v>1456.167840373443</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="O2" t="n">
-        <v>1456.167840373443</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615871</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615871</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
         <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533645</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130057</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="V2" t="n">
-        <v>993.9695752563066</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566535</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="X2" t="n">
-        <v>589.8986307648048</v>
+        <v>1927.427169824022</v>
       </c>
       <c r="Y2" t="n">
-        <v>184.5613607196951</v>
+        <v>1522.089899778913</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422927</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338204</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="K3" t="n">
-        <v>317.8462675338204</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="L3" t="n">
-        <v>317.8462675338204</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="M3" t="n">
-        <v>796.7851917762484</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="N3" t="n">
-        <v>1275.724116018677</v>
+        <v>789.3385488143367</v>
       </c>
       <c r="O3" t="n">
-        <v>1383.244289010048</v>
+        <v>1268.277473056765</v>
       </c>
       <c r="P3" t="n">
-        <v>1383.244289010048</v>
+        <v>1747.216397299193</v>
       </c>
       <c r="Q3" t="n">
         <v>1847.389765872827</v>
@@ -4488,25 +4488,25 @@
         <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>165.7127968734999</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>520.4021181679207</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>911.5879131381714</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1289.079424014207</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453208</v>
+        <v>1644.50755269397</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
         <v>1935.106764615871</v>
@@ -4518,19 +4518,19 @@
         <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841771</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U4" t="n">
-        <v>1586.901630356107</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="V4" t="n">
-        <v>1586.901630356107</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="W4" t="n">
-        <v>1312.04922652862</v>
+        <v>1780.955891393073</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.04922652862</v>
+        <v>1538.391994838878</v>
       </c>
       <c r="Y4" t="n">
         <v>1312.04922652862</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2043.959734409802</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C5" t="n">
-        <v>2021.099408463506</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>1597.806787648507</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.829847796364</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4567,28 +4567,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>116.829168004879</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>116.829168004879</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4606,13 +4606,13 @@
         <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.934791665823</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>602.6104029955975</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>602.6104029955975</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825398</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>451.3798346740465</v>
+        <v>438.7123380797763</v>
       </c>
       <c r="C7" t="n">
-        <v>451.3798346740465</v>
+        <v>266.7397749586924</v>
       </c>
       <c r="D7" t="n">
-        <v>288.0630618008172</v>
+        <v>103.4230020854631</v>
       </c>
       <c r="E7" t="n">
-        <v>288.0630618008172</v>
+        <v>103.4230020854631</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>103.4230020854631</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>103.4230020854631</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>103.4230020854631</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4728,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1947.200787969719</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U7" t="n">
-        <v>1667.016339470023</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V7" t="n">
-        <v>1385.304872078052</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W7" t="n">
-        <v>1110.452468250565</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X7" t="n">
-        <v>867.88857169637</v>
+        <v>855.2210751020999</v>
       </c>
       <c r="Y7" t="n">
-        <v>641.5458033861121</v>
+        <v>628.878306791842</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>533.9701437626245</v>
+        <v>412.0068991484209</v>
       </c>
       <c r="C8" t="n">
-        <v>511.1098178163287</v>
+        <v>389.1465732021251</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>369.8943564275295</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>347.9578206157911</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>326.8740428455954</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4810,22 +4810,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O8" t="n">
-        <v>1696.494830002562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4837,19 +4837,19 @@
         <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.1289725064</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.1289725064</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X8" t="n">
-        <v>1359.155778099264</v>
+        <v>833.1521294446566</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.8185080541546</v>
+        <v>427.8148593995469</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>756.3555336978366</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M9" t="n">
-        <v>756.3555336978366</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N9" t="n">
-        <v>756.3555336978366</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>946.7665737820055</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7940106609215</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>611.4772377876922</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1654.348842875753</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1379.496439048266</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1136.932542494071</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1136.932542494071</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N11" t="n">
-        <v>3114.325629236558</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O11" t="n">
-        <v>3959.47027938737</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P11" t="n">
-        <v>4667.749558545297</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5071,22 +5071,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5129,19 +5129,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N12" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516.5477476675582</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C13" t="n">
-        <v>516.5477476675582</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D13" t="n">
-        <v>516.5477476675582</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E13" t="n">
-        <v>516.5477476675582</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>344.6859734421186</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>344.6859734421186</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>200.8897049502729</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5229,22 +5229,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359498</v>
+        <v>1709.587066876733</v>
       </c>
       <c r="W13" t="n">
-        <v>985.454412532011</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X13" t="n">
-        <v>742.8905159778161</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y13" t="n">
-        <v>516.5477476675582</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
         <v>435.0679631883225</v>
@@ -5281,49 +5281,49 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1125.089101572745</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2129.375202991803</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478504</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.770911629316</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787244</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L15" t="n">
-        <v>692.7876399741681</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M15" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N15" t="n">
-        <v>1782.102586447038</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
         <v>1910.990343986338</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>684.0483191256287</v>
+        <v>543.5554397491876</v>
       </c>
       <c r="C16" t="n">
-        <v>512.0757560045447</v>
+        <v>371.5828766281036</v>
       </c>
       <c r="D16" t="n">
-        <v>512.0757560045447</v>
+        <v>208.2661037548743</v>
       </c>
       <c r="E16" t="n">
-        <v>345.8675501573982</v>
+        <v>208.2661037548743</v>
       </c>
       <c r="F16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5454,34 +5454,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="T16" t="n">
-        <v>1898.15780502933</v>
+        <v>2039.37639304486</v>
       </c>
       <c r="U16" t="n">
-        <v>1617.973356529634</v>
+        <v>1759.191944545164</v>
       </c>
       <c r="V16" t="n">
-        <v>1617.973356529634</v>
+        <v>1477.480477153193</v>
       </c>
       <c r="W16" t="n">
-        <v>1343.120952702147</v>
+        <v>1202.628073325706</v>
       </c>
       <c r="X16" t="n">
-        <v>1100.557056147952</v>
+        <v>960.0641767715111</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.2142878376944</v>
+        <v>733.7214084612532</v>
       </c>
     </row>
     <row r="17">
@@ -5494,10 +5494,10 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
         <v>1264.531207409474</v>
@@ -5524,19 +5524,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5597,22 +5597,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O18" t="n">
-        <v>1529.586448057074</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.547747667561</v>
+        <v>747.6452875977553</v>
       </c>
       <c r="C19" t="n">
-        <v>344.575184546477</v>
+        <v>575.6727244766713</v>
       </c>
       <c r="D19" t="n">
-        <v>344.575184546477</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E19" t="n">
-        <v>178.3669786993305</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5694,31 +5694,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2205.094121275557</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1961.754773501456</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1681.570325001761</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1681.570325001761</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1406.717921174274</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778189</v>
+        <v>1164.154024620079</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.547747667561</v>
+        <v>937.8112563098209</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>292.0244587153436</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="K20" t="n">
-        <v>1007.532766690843</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1165.735894343786</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1165.735894343786</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>440.5322462326804</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>985.4544125320137</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778188</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675609</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,13 +5989,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
         <v>2011.818868109901</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3817789554925</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>154.4092158344085</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6232,22 +6232,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>730.647150085061</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O27" t="n">
-        <v>730.647150085061</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.8276921262043</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>848.3364291485279</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.99366083827</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,16 +6463,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
         <v>2988.069926596602</v>
@@ -6539,25 +6539,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
         <v>1364.825557038856</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>609.4538236255814</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>437.4812605044974</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
         <v>274.1644876312681</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>835.7965919358394</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>609.4538236255814</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4220.213029898572</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P32" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6943,22 +6943,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>742.8905159778161</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C37" t="n">
-        <v>742.8905159778161</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D37" t="n">
-        <v>579.5737431045868</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="E37" t="n">
-        <v>413.3655372574403</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="F37" t="n">
-        <v>413.3655372574403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.8905159778161</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7204,7 +7204,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>4143.246847793825</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>4143.246847793825</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>4143.635082195253</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>5033.116360206724</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>5033.116360206724</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>5033.116360206724</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4017.903765402531</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.931202281447</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408218</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561072</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629864</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138019</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878295</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102453</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>5115.135670291427</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>5115.135670291427</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>4833.424202899456</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>4558.571799071969</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>4316.007902517774</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>4089.665134207516</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
         <v>2113.800768076616</v>
@@ -7399,7 +7399,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G41" t="n">
         <v>435.0679631883225</v>
@@ -7411,7 +7411,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7420,43 +7420,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O41" t="n">
-        <v>4289.300056251597</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409525</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7490,13 +7490,13 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>946.5481644506465</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M42" t="n">
         <v>1364.825557038856</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>601.2341827829796</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C43" t="n">
-        <v>429.2616196618956</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D43" t="n">
-        <v>265.9448467886663</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E43" t="n">
-        <v>265.9448467886663</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="F43" t="n">
-        <v>246.0989818976742</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7608,13 +7608,13 @@
         <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1260.306816359498</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X43" t="n">
-        <v>1017.742919805303</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y43" t="n">
-        <v>791.4001514950452</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="44">
@@ -7648,49 +7648,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2398.817321261059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>3578.14552899051</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>3578.14552899051</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>3578.14552899051</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>3578.14552899051</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>4667.46047546338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>4667.46047546338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>4667.46047546338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>5033.116360206724</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3918.135197142812</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>3746.162634021728</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D46" t="n">
-        <v>3582.845861148498</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E46" t="n">
-        <v>3416.637655301352</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F46" t="n">
-        <v>3244.775881075912</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G46" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>4871.796322517327</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>4591.611874017632</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>4591.611874017632</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>4316.759470190144</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>4144.477965453069</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>3918.135197142812</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487771</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865907</v>
       </c>
       <c r="M2" t="n">
-        <v>501.6614210774818</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884139</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.167650509992</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641992</v>
+        <v>39.87991497762168</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
@@ -8066,19 +8066,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662958</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>505.1197193675095</v>
       </c>
       <c r="O3" t="n">
-        <v>131.7781250670417</v>
+        <v>506.94858087619</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587965</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>123.9322590704272</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.258252009462</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8151,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>94.6403295087156</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>108.8261593358512</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8233,13 +8233,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>259.4889279983319</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>466.3767193553316</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8458,25 +8458,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>452.5855512828693</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647325</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,10 +8698,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>423.228367941047</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>369.2860653765454</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>230.3933721714771</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,13 +8929,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>702.6160445827093</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,22 +9005,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>133.9113326837148</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>153.3615438023236</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>653.6520906270367</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9257,13 +9257,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>407.0273017394389</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>221.0580860608543</v>
+        <v>123.5223236751217</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9488,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>693.1063741240905</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>574.2427960500296</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9734,13 +9734,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,10 +9880,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,19 +9965,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0343783945846</v>
+        <v>418.2054371258495</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10187,28 +10187,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>229.9655591801901</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
@@ -10351,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10363,13 +10363,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.9095497086638</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,16 +10591,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>882.1738474735962</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10609,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>312.8133471445368</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10898,31 +10898,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.73518417458029</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934506</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M42" t="n">
-        <v>445.5991972680949</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11299,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>751.2280472965118</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,16 +11387,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>392.0964168176092</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>1.169760948126836</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>203.8814937157039</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>65.23940003762991</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>75.19552205038323</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>94.83953384261821</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>138.1565208377855</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113.0089626044134</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>91.97701519844301</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>65.23940003763306</v>
       </c>
       <c r="G37" t="n">
-        <v>97.7713927796685</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.2205539080107</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>150.495750241103</v>
+        <v>165.764160956837</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>68.15019490184621</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>69.57956789894868</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>534194.2363001227</v>
+        <v>534194.2363001228</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>534194.2363001227</v>
+        <v>534194.2363001228</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>534194.2363001228</v>
+        <v>534194.2363001227</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>534194.2363001228</v>
+        <v>534194.2363001227</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>534194.2363001227</v>
+        <v>534194.2363001226</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>480515.2011092093</v>
+      </c>
+      <c r="C2" t="n">
         <v>480515.2011092094</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>480515.2011092093</v>
       </c>
-      <c r="D2" t="n">
-        <v>480515.2011092094</v>
-      </c>
       <c r="E2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="F2" t="n">
         <v>463675.082588394</v>
@@ -26331,25 +26331,25 @@
         <v>463675.0825883939</v>
       </c>
       <c r="H2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="I2" t="n">
         <v>463675.0825883938</v>
       </c>
       <c r="J2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883937</v>
       </c>
       <c r="K2" t="n">
         <v>463675.0825883938</v>
       </c>
       <c r="L2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883937</v>
       </c>
       <c r="M2" t="n">
         <v>463675.0825883938</v>
       </c>
       <c r="N2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="O2" t="n">
         <v>463675.0825883939</v>
@@ -26435,28 +26435,28 @@
         <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
+        <v>15116.17365792743</v>
+      </c>
+      <c r="I4" t="n">
         <v>15116.17365792744</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15116.17365792743</v>
       </c>
       <c r="J4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="N4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="P4" t="n">
         <v>15116.17365792744</v>
@@ -26508,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91380.56677276216</v>
+        <v>91380.56677276199</v>
       </c>
       <c r="C6" t="n">
-        <v>241531.7038291548</v>
+        <v>241531.7038291549</v>
       </c>
       <c r="D6" t="n">
-        <v>264938.5375027671</v>
+        <v>264938.5375027669</v>
       </c>
       <c r="E6" t="n">
-        <v>155069.4901853961</v>
+        <v>155018.4595232119</v>
       </c>
       <c r="F6" t="n">
-        <v>370808.8467420369</v>
+        <v>370757.8160798526</v>
       </c>
       <c r="G6" t="n">
-        <v>370808.8467420368</v>
+        <v>370757.8160798525</v>
       </c>
       <c r="H6" t="n">
-        <v>370808.8467420368</v>
+        <v>370757.8160798524</v>
       </c>
       <c r="I6" t="n">
-        <v>370808.8467420366</v>
+        <v>370757.8160798524</v>
       </c>
       <c r="J6" t="n">
-        <v>244231.578161748</v>
+        <v>244180.5474995635</v>
       </c>
       <c r="K6" t="n">
-        <v>352162.2463850168</v>
+        <v>352111.2157228325</v>
       </c>
       <c r="L6" t="n">
-        <v>370808.8467420367</v>
+        <v>370757.8160798523</v>
       </c>
       <c r="M6" t="n">
-        <v>190744.975286869</v>
+        <v>190693.9446246846</v>
       </c>
       <c r="N6" t="n">
-        <v>370808.8467420368</v>
+        <v>370757.8160798523</v>
       </c>
       <c r="O6" t="n">
-        <v>370808.8467420368</v>
+        <v>370757.8160798525</v>
       </c>
       <c r="P6" t="n">
-        <v>370808.8467420367</v>
+        <v>370757.8160798525</v>
       </c>
     </row>
   </sheetData>
@@ -27381,16 +27381,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>390.3743495457175</v>
+        <v>231.6731933331285</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27590,22 +27590,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>173.5654753938913</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>119.4945152986416</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.3945739651546</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27678,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>342.9323154271054</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>40.43535331127342</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>134.4062914546842</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>155.291514712025</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>226.4593363808663</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>36.74534024663697</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-2.495430374854276e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28526,7 +28526,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28766,7 +28766,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>483.7766911539678</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>464.23015817805</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>483.7766911539678</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>483.7766911539678</v>
+        <v>2.304553167390384</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
@@ -34786,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>483.7766911539678</v>
       </c>
       <c r="O3" t="n">
-        <v>108.6062353448195</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>101.1852207814487</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.29359755675</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34871,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>72.14114201029115</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>73.06155854104185</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34953,13 +34953,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>238.1458997847902</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35178,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>444.605878150503</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,10 +35418,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416152</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,10 +35430,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>333.1613907719473</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>208.6225309666485</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>666.8514437878999</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35822,7 +35822,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968728</v>
       </c>
       <c r="Q16" t="n">
         <v>128.2829598391535</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>616.220827727605</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>385.2564605346102</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391567</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>191.6381265752677</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36144,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>669.9344844018683</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>551.8435622166962</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,10 +36600,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>634.6913501810429</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>208.6225309666485</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
@@ -37071,7 +37071,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37083,13 +37083,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.78487510406572</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37329,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.3921559610386215</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37703,7 +37703,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937791</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454859</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M42" t="n">
-        <v>422.5024167557669</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>713.9484244620658</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>369.3493785286307</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
